--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,24 +447,24 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Account.extension:account-statementGeneratedDay</t>
-  </si>
-  <si>
-    <t>account-statementGeneratedDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/StructureDefinition/account-statementGeneratedDay}
+    <t>Account.extension:account-statementGenerationDay</t>
+  </si>
+  <si>
+    <t>account-statementGenerationDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/StructureDefinition/account-statementGenerationDay}
 </t>
   </si>
   <si>
-    <t>Extension account-statementGeneratedDay</t>
+    <t>Extension account-statementGenerationDay</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Account.extension:account-statementGeneratedDay.id</t>
+    <t>Account.extension:account-statementGenerationDay.id</t>
   </si>
   <si>
     <t>Account.extension.id</t>
@@ -486,7 +486,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Account.extension:account-statementGeneratedDay.extension</t>
+    <t>Account.extension:account-statementGenerationDay.extension</t>
   </si>
   <si>
     <t>Account.extension.extension</t>
@@ -498,7 +498,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Account.extension:account-statementGeneratedDay.url</t>
+    <t>Account.extension:account-statementGenerationDay.url</t>
   </si>
   <si>
     <t>Account.extension.url</t>
@@ -513,13 +513,13 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://va.gov/fhir/StructureDefinition/account-statementGeneratedDay</t>
+    <t>http://va.gov/fhir/StructureDefinition/account-statementGenerationDay</t>
   </si>
   <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Account.extension:account-statementGeneratedDay.value[x]</t>
+    <t>Account.extension:account-statementGenerationDay.value[x]</t>
   </si>
   <si>
     <t>Account.extension.value[x]</t>
@@ -1399,9 +1399,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.96875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.2578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="27.6875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1409,7 +1409,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -723,7 +723,13 @@
     <t>2003: transform using concat(Sta3n, text({IEN (.001)},"0000000000000", left({NAME (.01)}), 5) on ACCOUNTS RECEIVABLE - PATIENT &gt; PATIENT (430-7 &gt; 2-)</t>
   </si>
   <si>
-    <t>IB.AccountsReceivable.PatientIEN,IB.AccountsReceivableComment.PatientIEN,IB.AccountsReceivableDescription.PatientIEN,IB.AccountsReceivableFiscalYear.PatientIEN,IB.AccountsReceivableRepayDate.PatientIEN,IB.AccountsReceivableTCSP.PatientIEN,IB.AccountsReceivableTCSP.PatientSID</t>
+    <t>IB.AccountsReceivable.PatientIEN
+IB.AccountsReceivableComment.PatientIEN
+IB.AccountsReceivableDescription.PatientIEN
+IB.AccountsReceivableFiscalYear.PatientIEN
+IB.AccountsReceivableRepayDate.PatientIEN
+IB.AccountsReceivableTCSP.PatientIEN
+IB.AccountsReceivableTCSP.PatientSID</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1435,7 +1441,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="126.33203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="230.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalAccount.xlsx
+++ b/docs/StructureDefinition-DebtPortalAccount.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
